--- a/★★★行程★★★/一日游/预订情况-3月.xlsx
+++ b/★★★行程★★★/一日游/预订情况-3月.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>已发送</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>未发送</t>
-  </si>
-  <si>
-    <t>Ji Xiaonan - RRUU</t>
   </si>
   <si>
     <t>6 adults</t>
@@ -101,6 +98,18 @@
   </si>
   <si>
     <t>丽姐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ji Xiaonan - RRUU</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhu Pingfang - TaoBao</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 adults</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +510,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -563,7 +572,7 @@
         <v>42795</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>2</v>
@@ -581,7 +590,7 @@
         <v>965223</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="10" customFormat="1">
@@ -589,7 +598,7 @@
         <v>42796</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>2</v>
@@ -607,7 +616,7 @@
         <v>965206</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="10" customFormat="1">
@@ -615,7 +624,7 @@
         <v>42800</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>2</v>
@@ -633,7 +642,7 @@
         <v>968807</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="10" customFormat="1">
@@ -641,7 +650,7 @@
         <v>42806</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>2</v>
@@ -659,7 +668,7 @@
         <v>978290</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="10" customFormat="1">
@@ -667,13 +676,13 @@
         <v>42810</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>14</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>11</v>
@@ -681,18 +690,28 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="10" customFormat="1">
+      <c r="A9" s="7">
+        <v>42814</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="6"/>
@@ -743,18 +762,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9 E11">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11">
       <formula1>$K$6:$K$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 E12:E14 E4:E8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E14 E4:E10">
       <formula1>$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D14 D4:D8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D14">
       <formula1>$B$1:$B$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9">
-      <formula1>$J$6:$J$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/★★★行程★★★/一日游/预订情况-3月.xlsx
+++ b/★★★行程★★★/一日游/预订情况-3月.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>已发送</t>
   </si>
@@ -110,6 +110,10 @@
   </si>
   <si>
     <t>2 adults</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>YANG CHENG - RRUU</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -509,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -685,10 +689,14 @@
         <v>0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>895403</v>
+      </c>
+      <c r="G8" s="8">
+        <v>981853</v>
+      </c>
       <c r="H8" s="11" t="s">
         <v>22</v>
       </c>
@@ -713,15 +721,25 @@
       <c r="G9" s="8"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+    <row r="10" spans="1:8" s="10" customFormat="1">
+      <c r="A10" s="7">
+        <v>42816</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="6"/>

--- a/★★★行程★★★/一日游/预订情况-3月.xlsx
+++ b/★★★行程★★★/一日游/预订情况-3月.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17870"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>已发送</t>
   </si>
@@ -105,11 +105,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Zhu Pingfang - TaoBao</t>
+    <t>2 adults</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2 adults</t>
+    <t>EC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brad</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI YA NAN - RRUU</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -513,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -703,43 +711,55 @@
     </row>
     <row r="9" spans="1:8" s="10" customFormat="1">
       <c r="A9" s="7">
-        <v>42814</v>
+        <v>42816</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" s="9" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>904033</v>
+      </c>
+      <c r="G9" s="8">
+        <v>992850</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1">
       <c r="A10" s="7">
         <v>42816</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>904034</v>
+      </c>
+      <c r="G10" s="8">
+        <v>992854</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="6"/>

--- a/★★★行程★★★/一日游/预订情况-3月.xlsx
+++ b/★★★行程★★★/一日游/预订情况-3月.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>已发送</t>
   </si>
@@ -122,6 +122,14 @@
   </si>
   <si>
     <t>YANG CHENG - RRUU</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 adults</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang tianshu - RRUU</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -761,15 +769,31 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="6"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+    <row r="11" spans="1:8" s="10" customFormat="1">
+      <c r="A11" s="7">
+        <v>42821</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>909994</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1000671</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="6"/>
@@ -800,11 +824,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11">
-      <formula1>$K$6:$K$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E14 E4:E10">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E14">
       <formula1>$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D14">
